--- a/Code/Results/Cases/Case_0_173/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_173/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>7.5619187107448</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>14.94569500033405</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>8.133560871811834</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>108.2532446164392</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>4.134971777197348</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>11.18115815630198</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>9.606543582882365</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>75.39830013714037</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.033964353165781</v>
+        <v>7.626021159278602</v>
       </c>
       <c r="D3">
-        <v>13.90158532086262</v>
+        <v>15.01360064984741</v>
       </c>
       <c r="E3">
-        <v>12.60989402679687</v>
+        <v>7.79799673708996</v>
       </c>
       <c r="F3">
-        <v>69.29692959380955</v>
+        <v>109.5234281847744</v>
       </c>
       <c r="G3">
-        <v>1.897372450744372</v>
+        <v>4.151887848442145</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.322573671551803</v>
+        <v>11.31151842423965</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.987443112738832</v>
+        <v>9.483884824707939</v>
       </c>
       <c r="M3">
-        <v>94.6019615495188</v>
+        <v>73.5573528289397</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.230520872072666</v>
+        <v>7.66700799315175</v>
       </c>
       <c r="D4">
-        <v>12.44305731462313</v>
+        <v>15.06444122107265</v>
       </c>
       <c r="E4">
-        <v>11.6910129550489</v>
+        <v>7.586345404946105</v>
       </c>
       <c r="F4">
-        <v>63.24933104738327</v>
+        <v>110.3592733583721</v>
       </c>
       <c r="G4">
-        <v>1.978702571960802</v>
+        <v>4.162662434652582</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.767874703827706</v>
+        <v>11.39458764928221</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.377488433096296</v>
+        <v>9.409781009756063</v>
       </c>
       <c r="M4">
-        <v>88.1738749155744</v>
+        <v>72.41580856144762</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.305464990427882</v>
+        <v>7.684124256172367</v>
       </c>
       <c r="D5">
-        <v>11.93703585660065</v>
+        <v>15.08739660221239</v>
       </c>
       <c r="E5">
-        <v>11.34651104167456</v>
+        <v>7.498786847267606</v>
       </c>
       <c r="F5">
-        <v>61.6605706063628</v>
+        <v>110.7137077342582</v>
       </c>
       <c r="G5">
-        <v>2.007037140633245</v>
+        <v>4.167152507713094</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.570522828443035</v>
+        <v>11.42921004646317</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.152254675320231</v>
+        <v>9.37990413033976</v>
       </c>
       <c r="M5">
-        <v>85.79393579720147</v>
+        <v>71.94826033604933</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.317694080075146</v>
+        <v>7.686991520795708</v>
       </c>
       <c r="D6">
-        <v>11.86353494582846</v>
+        <v>15.09134165959729</v>
       </c>
       <c r="E6">
-        <v>11.29040653571049</v>
+        <v>7.484172033425753</v>
       </c>
       <c r="F6">
-        <v>61.42538416261467</v>
+        <v>110.7733891357339</v>
       </c>
       <c r="G6">
-        <v>2.011551289965862</v>
+        <v>4.167904131195297</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.538877112126761</v>
+        <v>11.43500591803291</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.11576412510478</v>
+        <v>9.374962979363758</v>
       </c>
       <c r="M6">
-        <v>85.40698910112415</v>
+        <v>71.87049562703554</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.231547647201073</v>
+        <v>7.667237147714859</v>
       </c>
       <c r="D7">
-        <v>12.43596515374903</v>
+        <v>15.0647418276352</v>
       </c>
       <c r="E7">
-        <v>11.68628168266152</v>
+        <v>7.585169713506335</v>
       </c>
       <c r="F7">
-        <v>63.22580157942073</v>
+        <v>110.3639977384074</v>
       </c>
       <c r="G7">
-        <v>1.979099099296762</v>
+        <v>4.16272258483132</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.765127904808275</v>
+        <v>11.39505144445413</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.374381829515926</v>
+        <v>9.40937675756668</v>
       </c>
       <c r="M7">
-        <v>88.14114522549305</v>
+        <v>72.40951197512466</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.783179975859333</v>
+        <v>7.583686159413825</v>
       </c>
       <c r="D8">
-        <v>16.24285261471089</v>
+        <v>14.96717260378404</v>
       </c>
       <c r="E8">
-        <v>13.88393052435228</v>
+        <v>8.019080765299893</v>
       </c>
       <c r="F8">
-        <v>81.2347472873271</v>
+        <v>108.6794372236339</v>
       </c>
       <c r="G8">
-        <v>1.767088163215911</v>
+        <v>4.140724983574929</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.175747259207093</v>
+        <v>11.22548393585497</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.85329093623568</v>
+        <v>9.564010072326099</v>
       </c>
       <c r="M8">
-        <v>104.112130814117</v>
+        <v>74.76612946958124</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.783179975859333</v>
+        <v>7.432547918264095</v>
       </c>
       <c r="D9">
-        <v>16.24285261471089</v>
+        <v>14.85127285797558</v>
       </c>
       <c r="E9">
-        <v>13.88393052435228</v>
+        <v>8.821628100309066</v>
       </c>
       <c r="F9">
-        <v>81.2347472873271</v>
+        <v>105.8320543815007</v>
       </c>
       <c r="G9">
-        <v>1.767088163215911</v>
+        <v>4.100583075823963</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.175747259207093</v>
+        <v>10.91653451472366</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.85329093623568</v>
+        <v>9.876104644826023</v>
       </c>
       <c r="M9">
-        <v>104.112130814117</v>
+        <v>79.28019278644621</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2.783179975859333</v>
+        <v>7.328950842782504</v>
       </c>
       <c r="D10">
-        <v>16.24285261471089</v>
+        <v>14.81613021766198</v>
       </c>
       <c r="E10">
-        <v>13.88393052435228</v>
+        <v>9.377607491418258</v>
       </c>
       <c r="F10">
-        <v>81.2347472873271</v>
+        <v>104.0364737141251</v>
       </c>
       <c r="G10">
-        <v>1.767088163215911</v>
+        <v>4.072794115713639</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.175747259207093</v>
+        <v>10.70328024406949</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.85329093623568</v>
+        <v>10.1098536788017</v>
       </c>
       <c r="M10">
-        <v>104.112130814117</v>
+        <v>82.50910830645513</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2.783179975859333</v>
+        <v>7.283370404883856</v>
       </c>
       <c r="D11">
-        <v>16.24285261471089</v>
+        <v>14.81189519658585</v>
       </c>
       <c r="E11">
-        <v>13.88393052435228</v>
+        <v>9.622587655467292</v>
       </c>
       <c r="F11">
-        <v>81.2347472873271</v>
+        <v>103.2885316750018</v>
       </c>
       <c r="G11">
-        <v>1.767088163215911</v>
+        <v>4.06049334753298</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.175747259207093</v>
+        <v>10.60910514975649</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.85329093623568</v>
+        <v>10.21697159319924</v>
       </c>
       <c r="M11">
-        <v>104.112130814117</v>
+        <v>83.95506440407586</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>2.783179975859333</v>
+        <v>7.266326971552097</v>
       </c>
       <c r="D12">
-        <v>16.24285261471089</v>
+        <v>14.81205681453685</v>
       </c>
       <c r="E12">
-        <v>13.88393052435228</v>
+        <v>9.714174181370536</v>
       </c>
       <c r="F12">
-        <v>81.2347472873271</v>
+        <v>103.0156348788872</v>
       </c>
       <c r="G12">
-        <v>1.767088163215911</v>
+        <v>4.055881834473954</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.175747259207093</v>
+        <v>10.57383957580459</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.85329093623568</v>
+        <v>10.25763244768089</v>
       </c>
       <c r="M12">
-        <v>104.112130814117</v>
+        <v>84.49903906602935</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>2.783179975859333</v>
+        <v>7.269988023052348</v>
       </c>
       <c r="D13">
-        <v>16.24285261471089</v>
+        <v>14.81194227529496</v>
       </c>
       <c r="E13">
-        <v>13.88393052435228</v>
+        <v>9.694502507436214</v>
       </c>
       <c r="F13">
-        <v>81.2347472873271</v>
+        <v>103.0739413051266</v>
       </c>
       <c r="G13">
-        <v>1.767088163215911</v>
+        <v>4.05687297799203</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.175747259207093</v>
+        <v>10.58141719531355</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.85329093623568</v>
+        <v>10.24887129085202</v>
       </c>
       <c r="M13">
-        <v>104.112130814117</v>
+        <v>84.38204761900018</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>2.783179975859333</v>
+        <v>7.281963916677875</v>
       </c>
       <c r="D14">
-        <v>16.24285261471089</v>
+        <v>14.81187267529959</v>
       </c>
       <c r="E14">
-        <v>13.88393052435228</v>
+        <v>9.630146425260198</v>
       </c>
       <c r="F14">
-        <v>81.2347472873271</v>
+        <v>103.2658706186837</v>
       </c>
       <c r="G14">
-        <v>1.767088163215911</v>
+        <v>4.060113037824658</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.175747259207093</v>
+        <v>10.60619594861577</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.85329093623568</v>
+        <v>10.22031491187907</v>
       </c>
       <c r="M14">
-        <v>104.112130814117</v>
+        <v>83.99989071827659</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>2.783179975859333</v>
+        <v>7.289327576708754</v>
       </c>
       <c r="D15">
-        <v>16.24285261471089</v>
+        <v>14.81206220782789</v>
       </c>
       <c r="E15">
-        <v>13.88393052435228</v>
+        <v>9.590571471675839</v>
       </c>
       <c r="F15">
-        <v>81.2347472873271</v>
+        <v>103.3847918499413</v>
       </c>
       <c r="G15">
-        <v>1.767088163215911</v>
+        <v>4.062103651026758</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.175747259207093</v>
+        <v>10.62142494822069</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.85329093623568</v>
+        <v>10.20283559068902</v>
       </c>
       <c r="M15">
-        <v>104.112130814117</v>
+        <v>83.7653348947251</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>2.783179975859333</v>
+        <v>7.331960284973387</v>
       </c>
       <c r="D16">
-        <v>16.24285261471089</v>
+        <v>14.8166498731547</v>
       </c>
       <c r="E16">
-        <v>13.88393052435228</v>
+        <v>9.36143403340183</v>
       </c>
       <c r="F16">
-        <v>81.2347472873271</v>
+        <v>104.0867751935512</v>
       </c>
       <c r="G16">
-        <v>1.767088163215911</v>
+        <v>4.073604646750114</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.175747259207093</v>
+        <v>10.70949090759069</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.85329093623568</v>
+        <v>10.10286772946827</v>
       </c>
       <c r="M16">
-        <v>104.112130814117</v>
+        <v>82.41412568132259</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2.783179975859333</v>
+        <v>7.3585063009035</v>
       </c>
       <c r="D17">
-        <v>16.24285261471089</v>
+        <v>14.82252731358638</v>
       </c>
       <c r="E17">
-        <v>13.88393052435228</v>
+        <v>9.218800536440959</v>
       </c>
       <c r="F17">
-        <v>81.2347472873271</v>
+        <v>104.5353528998292</v>
       </c>
       <c r="G17">
-        <v>1.767088163215911</v>
+        <v>4.080745665108861</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.175747259207093</v>
+        <v>10.76423480247323</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.85329093623568</v>
+        <v>10.04173039559663</v>
       </c>
       <c r="M17">
-        <v>104.112130814117</v>
+        <v>81.57912320744427</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2.783179975859333</v>
+        <v>7.37392076016582</v>
       </c>
       <c r="D18">
-        <v>16.24285261471089</v>
+        <v>14.82700936300668</v>
       </c>
       <c r="E18">
-        <v>13.88393052435228</v>
+        <v>9.136016181087335</v>
       </c>
       <c r="F18">
-        <v>81.2347472873271</v>
+        <v>104.7998180483481</v>
       </c>
       <c r="G18">
-        <v>1.767088163215911</v>
+        <v>4.084885201469073</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.175747259207093</v>
+        <v>10.79598960439661</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.85329093623568</v>
+        <v>10.00664047815697</v>
       </c>
       <c r="M18">
-        <v>104.112130814117</v>
+        <v>81.09671156169867</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2.783179975859333</v>
+        <v>7.379165052266313</v>
       </c>
       <c r="D19">
-        <v>16.24285261471089</v>
+        <v>14.82871381765943</v>
       </c>
       <c r="E19">
-        <v>13.88393052435228</v>
+        <v>9.107860208118259</v>
       </c>
       <c r="F19">
-        <v>81.2347472873271</v>
+        <v>104.8904576488005</v>
       </c>
       <c r="G19">
-        <v>1.767088163215911</v>
+        <v>4.086292381990359</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.175747259207093</v>
+        <v>10.80678752710216</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.85329093623568</v>
+        <v>9.994772939814219</v>
       </c>
       <c r="M19">
-        <v>104.112130814117</v>
+        <v>80.93301701858472</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2.783179975859333</v>
+        <v>7.355665371891719</v>
       </c>
       <c r="D20">
-        <v>16.24285261471089</v>
+        <v>14.82178710713519</v>
       </c>
       <c r="E20">
-        <v>13.88393052435228</v>
+        <v>9.234061581215837</v>
       </c>
       <c r="F20">
-        <v>81.2347472873271</v>
+        <v>104.486929977267</v>
       </c>
       <c r="G20">
-        <v>1.767088163215911</v>
+        <v>4.079982175035248</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.175747259207093</v>
+        <v>10.75837961043778</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.85329093623568</v>
+        <v>10.04823095589633</v>
       </c>
       <c r="M20">
-        <v>104.112130814117</v>
+        <v>81.66823435465572</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>2.783179975859333</v>
+        <v>7.278440464768356</v>
       </c>
       <c r="D21">
-        <v>16.24285261471089</v>
+        <v>14.811844598745</v>
       </c>
       <c r="E21">
-        <v>13.88393052435228</v>
+        <v>9.649081726778439</v>
       </c>
       <c r="F21">
-        <v>81.2347472873271</v>
+        <v>103.2092122963528</v>
       </c>
       <c r="G21">
-        <v>1.767088163215911</v>
+        <v>4.059160111455741</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.175747259207093</v>
+        <v>10.59890715808797</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.85329093623568</v>
+        <v>10.2287000775256</v>
       </c>
       <c r="M21">
-        <v>104.112130814117</v>
+        <v>84.11223863265882</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>2.783179975859333</v>
+        <v>7.229231032458018</v>
       </c>
       <c r="D22">
-        <v>16.24285261471089</v>
+        <v>14.81567242078626</v>
       </c>
       <c r="E22">
-        <v>13.88393052435228</v>
+        <v>9.913418646224699</v>
       </c>
       <c r="F22">
-        <v>81.2347472873271</v>
+        <v>102.4346034941342</v>
       </c>
       <c r="G22">
-        <v>1.767088163215911</v>
+        <v>4.045821597748471</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.175747259207093</v>
+        <v>10.49698837300797</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.85329093623568</v>
+        <v>10.34721004090475</v>
       </c>
       <c r="M22">
-        <v>104.112130814117</v>
+        <v>85.68858019383975</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>2.783179975859333</v>
+        <v>7.255381467503795</v>
       </c>
       <c r="D23">
-        <v>16.24285261471089</v>
+        <v>14.81265928218134</v>
       </c>
       <c r="E23">
-        <v>13.88393052435228</v>
+        <v>9.772979671586139</v>
       </c>
       <c r="F23">
-        <v>81.2347472873271</v>
+        <v>102.842343517883</v>
       </c>
       <c r="G23">
-        <v>1.767088163215911</v>
+        <v>4.052916767892761</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.175747259207093</v>
+        <v>10.5511771443593</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.85329093623568</v>
+        <v>10.28391219684453</v>
       </c>
       <c r="M23">
-        <v>104.112130814117</v>
+        <v>84.84925845551179</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2.783179975859333</v>
+        <v>7.356949279544741</v>
       </c>
       <c r="D24">
-        <v>16.24285261471089</v>
+        <v>14.822118324473</v>
       </c>
       <c r="E24">
-        <v>13.88393052435228</v>
+        <v>9.227164496858839</v>
       </c>
       <c r="F24">
-        <v>81.2347472873271</v>
+        <v>104.5088015426342</v>
       </c>
       <c r="G24">
-        <v>1.767088163215911</v>
+        <v>4.080327242594615</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.175747259207093</v>
+        <v>10.76102586414224</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.85329093623568</v>
+        <v>10.04529186842435</v>
       </c>
       <c r="M24">
-        <v>104.112130814117</v>
+        <v>81.62795452627306</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.783179975859333</v>
+        <v>7.472105226142542</v>
       </c>
       <c r="D25">
-        <v>16.24285261471089</v>
+        <v>14.87414131481847</v>
       </c>
       <c r="E25">
-        <v>13.88393052435228</v>
+        <v>8.610172406607823</v>
       </c>
       <c r="F25">
-        <v>81.2347472873271</v>
+        <v>106.5517309988615</v>
       </c>
       <c r="G25">
-        <v>1.767088163215911</v>
+        <v>4.111134139016536</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.175747259207093</v>
+        <v>10.99765523689497</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.85329093623568</v>
+        <v>9.790826006683293</v>
       </c>
       <c r="M25">
-        <v>104.112130814117</v>
+        <v>78.07292796256394</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_173/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_173/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.5619187107448</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>14.94569500033405</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>8.133560871811834</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>108.2532446164392</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>4.134971777197348</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.18115815630198</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.606543582882365</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>75.39830013714037</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.626021159278602</v>
+        <v>3.03396435316568</v>
       </c>
       <c r="D3">
-        <v>15.01360064984741</v>
+        <v>13.90158532086249</v>
       </c>
       <c r="E3">
-        <v>7.79799673708996</v>
+        <v>12.60989402679683</v>
       </c>
       <c r="F3">
-        <v>109.5234281847744</v>
+        <v>69.29692959380904</v>
       </c>
       <c r="G3">
-        <v>4.151887848442145</v>
+        <v>1.897372450744632</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.31151842423965</v>
+        <v>5.322573671551775</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.483884824707939</v>
+        <v>9.987443112738809</v>
       </c>
       <c r="M3">
-        <v>73.5573528289397</v>
+        <v>94.60196154951856</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.66700799315175</v>
+        <v>3.230520872072907</v>
       </c>
       <c r="D4">
-        <v>15.06444122107265</v>
+        <v>12.44305731462311</v>
       </c>
       <c r="E4">
-        <v>7.586345404946105</v>
+        <v>11.6910129550489</v>
       </c>
       <c r="F4">
-        <v>110.3592733583721</v>
+        <v>63.24933104738329</v>
       </c>
       <c r="G4">
-        <v>4.162662434652582</v>
+        <v>1.978702571960941</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.39458764928221</v>
+        <v>4.767874703827735</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.409781009756063</v>
+        <v>9.377488433096318</v>
       </c>
       <c r="M4">
-        <v>72.41580856144762</v>
+        <v>88.17387491557429</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.684124256172367</v>
+        <v>3.305464990428009</v>
       </c>
       <c r="D5">
-        <v>15.08739660221239</v>
+        <v>11.93703585660081</v>
       </c>
       <c r="E5">
-        <v>7.498786847267606</v>
+        <v>11.34651104167462</v>
       </c>
       <c r="F5">
-        <v>110.7137077342582</v>
+        <v>61.66057060636317</v>
       </c>
       <c r="G5">
-        <v>4.167152507713094</v>
+        <v>2.007037140633114</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.42921004646317</v>
+        <v>4.570522828442987</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.37990413033976</v>
+        <v>9.15225467532029</v>
       </c>
       <c r="M5">
-        <v>71.94826033604933</v>
+        <v>85.79393579720163</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.686991520795708</v>
+        <v>3.317694080075122</v>
       </c>
       <c r="D6">
-        <v>15.09134165959729</v>
+        <v>11.86353494582844</v>
       </c>
       <c r="E6">
-        <v>7.484172033425753</v>
+        <v>11.29040653571044</v>
       </c>
       <c r="F6">
-        <v>110.7733891357339</v>
+        <v>61.4253841626148</v>
       </c>
       <c r="G6">
-        <v>4.167904131195297</v>
+        <v>2.011551289966113</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.43500591803291</v>
+        <v>4.538877112126703</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.374962979363758</v>
+        <v>9.115764125104796</v>
       </c>
       <c r="M6">
-        <v>71.87049562703554</v>
+        <v>85.40698910112378</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.667237147714859</v>
+        <v>3.231547647201181</v>
       </c>
       <c r="D7">
-        <v>15.0647418276352</v>
+        <v>12.43596515374903</v>
       </c>
       <c r="E7">
-        <v>7.585169713506335</v>
+        <v>11.68628168266152</v>
       </c>
       <c r="F7">
-        <v>110.3639977384074</v>
+        <v>63.22580157942063</v>
       </c>
       <c r="G7">
-        <v>4.16272258483132</v>
+        <v>1.979099099296501</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.39505144445413</v>
+        <v>4.765127904808235</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.40937675756668</v>
+        <v>9.374381829515926</v>
       </c>
       <c r="M7">
-        <v>72.40951197512466</v>
+        <v>88.14114522549329</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.583686159413825</v>
+        <v>2.783179975859428</v>
       </c>
       <c r="D8">
-        <v>14.96717260378404</v>
+        <v>16.24285261471138</v>
       </c>
       <c r="E8">
-        <v>8.019080765299893</v>
+        <v>13.88393052435247</v>
       </c>
       <c r="F8">
-        <v>108.6794372236339</v>
+        <v>81.23474728733009</v>
       </c>
       <c r="G8">
-        <v>4.140724983574929</v>
+        <v>1.767088163215929</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.22548393585497</v>
+        <v>6.17574725920731</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.564010072326099</v>
+        <v>10.8532909362358</v>
       </c>
       <c r="M8">
-        <v>74.76612946958124</v>
+        <v>104.1121308141187</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.432547918264095</v>
+        <v>2.783179975859428</v>
       </c>
       <c r="D9">
-        <v>14.85127285797558</v>
+        <v>16.24285261471138</v>
       </c>
       <c r="E9">
-        <v>8.821628100309066</v>
+        <v>13.88393052435247</v>
       </c>
       <c r="F9">
-        <v>105.8320543815007</v>
+        <v>81.23474728733009</v>
       </c>
       <c r="G9">
-        <v>4.100583075823963</v>
+        <v>1.767088163215929</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.91653451472366</v>
+        <v>6.17574725920731</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.876104644826023</v>
+        <v>10.8532909362358</v>
       </c>
       <c r="M9">
-        <v>79.28019278644621</v>
+        <v>104.1121308141187</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.328950842782504</v>
+        <v>2.783179975859428</v>
       </c>
       <c r="D10">
-        <v>14.81613021766198</v>
+        <v>16.24285261471138</v>
       </c>
       <c r="E10">
-        <v>9.377607491418258</v>
+        <v>13.88393052435247</v>
       </c>
       <c r="F10">
-        <v>104.0364737141251</v>
+        <v>81.23474728733009</v>
       </c>
       <c r="G10">
-        <v>4.072794115713639</v>
+        <v>1.767088163215929</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.70328024406949</v>
+        <v>6.17574725920731</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.1098536788017</v>
+        <v>10.8532909362358</v>
       </c>
       <c r="M10">
-        <v>82.50910830645513</v>
+        <v>104.1121308141187</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.283370404883856</v>
+        <v>2.783179975859428</v>
       </c>
       <c r="D11">
-        <v>14.81189519658585</v>
+        <v>16.24285261471138</v>
       </c>
       <c r="E11">
-        <v>9.622587655467292</v>
+        <v>13.88393052435247</v>
       </c>
       <c r="F11">
-        <v>103.2885316750018</v>
+        <v>81.23474728733009</v>
       </c>
       <c r="G11">
-        <v>4.06049334753298</v>
+        <v>1.767088163215929</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.60910514975649</v>
+        <v>6.17574725920731</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.21697159319924</v>
+        <v>10.8532909362358</v>
       </c>
       <c r="M11">
-        <v>83.95506440407586</v>
+        <v>104.1121308141187</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.266326971552097</v>
+        <v>2.783179975859428</v>
       </c>
       <c r="D12">
-        <v>14.81205681453685</v>
+        <v>16.24285261471138</v>
       </c>
       <c r="E12">
-        <v>9.714174181370536</v>
+        <v>13.88393052435247</v>
       </c>
       <c r="F12">
-        <v>103.0156348788872</v>
+        <v>81.23474728733009</v>
       </c>
       <c r="G12">
-        <v>4.055881834473954</v>
+        <v>1.767088163215929</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.57383957580459</v>
+        <v>6.17574725920731</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.25763244768089</v>
+        <v>10.8532909362358</v>
       </c>
       <c r="M12">
-        <v>84.49903906602935</v>
+        <v>104.1121308141187</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.269988023052348</v>
+        <v>2.783179975859428</v>
       </c>
       <c r="D13">
-        <v>14.81194227529496</v>
+        <v>16.24285261471138</v>
       </c>
       <c r="E13">
-        <v>9.694502507436214</v>
+        <v>13.88393052435247</v>
       </c>
       <c r="F13">
-        <v>103.0739413051266</v>
+        <v>81.23474728733009</v>
       </c>
       <c r="G13">
-        <v>4.05687297799203</v>
+        <v>1.767088163215929</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.58141719531355</v>
+        <v>6.17574725920731</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.24887129085202</v>
+        <v>10.8532909362358</v>
       </c>
       <c r="M13">
-        <v>84.38204761900018</v>
+        <v>104.1121308141187</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.281963916677875</v>
+        <v>2.783179975859428</v>
       </c>
       <c r="D14">
-        <v>14.81187267529959</v>
+        <v>16.24285261471138</v>
       </c>
       <c r="E14">
-        <v>9.630146425260198</v>
+        <v>13.88393052435247</v>
       </c>
       <c r="F14">
-        <v>103.2658706186837</v>
+        <v>81.23474728733009</v>
       </c>
       <c r="G14">
-        <v>4.060113037824658</v>
+        <v>1.767088163215929</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.60619594861577</v>
+        <v>6.17574725920731</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.22031491187907</v>
+        <v>10.8532909362358</v>
       </c>
       <c r="M14">
-        <v>83.99989071827659</v>
+        <v>104.1121308141187</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.289327576708754</v>
+        <v>2.783179975859428</v>
       </c>
       <c r="D15">
-        <v>14.81206220782789</v>
+        <v>16.24285261471138</v>
       </c>
       <c r="E15">
-        <v>9.590571471675839</v>
+        <v>13.88393052435247</v>
       </c>
       <c r="F15">
-        <v>103.3847918499413</v>
+        <v>81.23474728733009</v>
       </c>
       <c r="G15">
-        <v>4.062103651026758</v>
+        <v>1.767088163215929</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.62142494822069</v>
+        <v>6.17574725920731</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.20283559068902</v>
+        <v>10.8532909362358</v>
       </c>
       <c r="M15">
-        <v>83.7653348947251</v>
+        <v>104.1121308141187</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.331960284973387</v>
+        <v>2.783179975859428</v>
       </c>
       <c r="D16">
-        <v>14.8166498731547</v>
+        <v>16.24285261471138</v>
       </c>
       <c r="E16">
-        <v>9.36143403340183</v>
+        <v>13.88393052435247</v>
       </c>
       <c r="F16">
-        <v>104.0867751935512</v>
+        <v>81.23474728733009</v>
       </c>
       <c r="G16">
-        <v>4.073604646750114</v>
+        <v>1.767088163215929</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.70949090759069</v>
+        <v>6.17574725920731</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.10286772946827</v>
+        <v>10.8532909362358</v>
       </c>
       <c r="M16">
-        <v>82.41412568132259</v>
+        <v>104.1121308141187</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.3585063009035</v>
+        <v>2.783179975859428</v>
       </c>
       <c r="D17">
-        <v>14.82252731358638</v>
+        <v>16.24285261471138</v>
       </c>
       <c r="E17">
-        <v>9.218800536440959</v>
+        <v>13.88393052435247</v>
       </c>
       <c r="F17">
-        <v>104.5353528998292</v>
+        <v>81.23474728733009</v>
       </c>
       <c r="G17">
-        <v>4.080745665108861</v>
+        <v>1.767088163215929</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.76423480247323</v>
+        <v>6.17574725920731</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.04173039559663</v>
+        <v>10.8532909362358</v>
       </c>
       <c r="M17">
-        <v>81.57912320744427</v>
+        <v>104.1121308141187</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.37392076016582</v>
+        <v>2.783179975859428</v>
       </c>
       <c r="D18">
-        <v>14.82700936300668</v>
+        <v>16.24285261471138</v>
       </c>
       <c r="E18">
-        <v>9.136016181087335</v>
+        <v>13.88393052435247</v>
       </c>
       <c r="F18">
-        <v>104.7998180483481</v>
+        <v>81.23474728733009</v>
       </c>
       <c r="G18">
-        <v>4.084885201469073</v>
+        <v>1.767088163215929</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.79598960439661</v>
+        <v>6.17574725920731</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.00664047815697</v>
+        <v>10.8532909362358</v>
       </c>
       <c r="M18">
-        <v>81.09671156169867</v>
+        <v>104.1121308141187</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.379165052266313</v>
+        <v>2.783179975859428</v>
       </c>
       <c r="D19">
-        <v>14.82871381765943</v>
+        <v>16.24285261471138</v>
       </c>
       <c r="E19">
-        <v>9.107860208118259</v>
+        <v>13.88393052435247</v>
       </c>
       <c r="F19">
-        <v>104.8904576488005</v>
+        <v>81.23474728733009</v>
       </c>
       <c r="G19">
-        <v>4.086292381990359</v>
+        <v>1.767088163215929</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.80678752710216</v>
+        <v>6.17574725920731</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.994772939814219</v>
+        <v>10.8532909362358</v>
       </c>
       <c r="M19">
-        <v>80.93301701858472</v>
+        <v>104.1121308141187</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.355665371891719</v>
+        <v>2.783179975859428</v>
       </c>
       <c r="D20">
-        <v>14.82178710713519</v>
+        <v>16.24285261471138</v>
       </c>
       <c r="E20">
-        <v>9.234061581215837</v>
+        <v>13.88393052435247</v>
       </c>
       <c r="F20">
-        <v>104.486929977267</v>
+        <v>81.23474728733009</v>
       </c>
       <c r="G20">
-        <v>4.079982175035248</v>
+        <v>1.767088163215929</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.75837961043778</v>
+        <v>6.17574725920731</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.04823095589633</v>
+        <v>10.8532909362358</v>
       </c>
       <c r="M20">
-        <v>81.66823435465572</v>
+        <v>104.1121308141187</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.278440464768356</v>
+        <v>2.783179975859428</v>
       </c>
       <c r="D21">
-        <v>14.811844598745</v>
+        <v>16.24285261471138</v>
       </c>
       <c r="E21">
-        <v>9.649081726778439</v>
+        <v>13.88393052435247</v>
       </c>
       <c r="F21">
-        <v>103.2092122963528</v>
+        <v>81.23474728733009</v>
       </c>
       <c r="G21">
-        <v>4.059160111455741</v>
+        <v>1.767088163215929</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.59890715808797</v>
+        <v>6.17574725920731</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.2287000775256</v>
+        <v>10.8532909362358</v>
       </c>
       <c r="M21">
-        <v>84.11223863265882</v>
+        <v>104.1121308141187</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.229231032458018</v>
+        <v>2.783179975859428</v>
       </c>
       <c r="D22">
-        <v>14.81567242078626</v>
+        <v>16.24285261471138</v>
       </c>
       <c r="E22">
-        <v>9.913418646224699</v>
+        <v>13.88393052435247</v>
       </c>
       <c r="F22">
-        <v>102.4346034941342</v>
+        <v>81.23474728733009</v>
       </c>
       <c r="G22">
-        <v>4.045821597748471</v>
+        <v>1.767088163215929</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.49698837300797</v>
+        <v>6.17574725920731</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.34721004090475</v>
+        <v>10.8532909362358</v>
       </c>
       <c r="M22">
-        <v>85.68858019383975</v>
+        <v>104.1121308141187</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.255381467503795</v>
+        <v>2.783179975859428</v>
       </c>
       <c r="D23">
-        <v>14.81265928218134</v>
+        <v>16.24285261471138</v>
       </c>
       <c r="E23">
-        <v>9.772979671586139</v>
+        <v>13.88393052435247</v>
       </c>
       <c r="F23">
-        <v>102.842343517883</v>
+        <v>81.23474728733009</v>
       </c>
       <c r="G23">
-        <v>4.052916767892761</v>
+        <v>1.767088163215929</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.5511771443593</v>
+        <v>6.17574725920731</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.28391219684453</v>
+        <v>10.8532909362358</v>
       </c>
       <c r="M23">
-        <v>84.84925845551179</v>
+        <v>104.1121308141187</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.356949279544741</v>
+        <v>2.783179975859428</v>
       </c>
       <c r="D24">
-        <v>14.822118324473</v>
+        <v>16.24285261471138</v>
       </c>
       <c r="E24">
-        <v>9.227164496858839</v>
+        <v>13.88393052435247</v>
       </c>
       <c r="F24">
-        <v>104.5088015426342</v>
+        <v>81.23474728733009</v>
       </c>
       <c r="G24">
-        <v>4.080327242594615</v>
+        <v>1.767088163215929</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.76102586414224</v>
+        <v>6.17574725920731</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.04529186842435</v>
+        <v>10.8532909362358</v>
       </c>
       <c r="M24">
-        <v>81.62795452627306</v>
+        <v>104.1121308141187</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.472105226142542</v>
+        <v>2.783179975859428</v>
       </c>
       <c r="D25">
-        <v>14.87414131481847</v>
+        <v>16.24285261471138</v>
       </c>
       <c r="E25">
-        <v>8.610172406607823</v>
+        <v>13.88393052435247</v>
       </c>
       <c r="F25">
-        <v>106.5517309988615</v>
+        <v>81.23474728733009</v>
       </c>
       <c r="G25">
-        <v>4.111134139016536</v>
+        <v>1.767088163215929</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.99765523689497</v>
+        <v>6.17574725920731</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.790826006683293</v>
+        <v>10.8532909362358</v>
       </c>
       <c r="M25">
-        <v>78.07292796256394</v>
+        <v>104.1121308141187</v>
       </c>
       <c r="N25">
         <v>0</v>
